--- a/Formula Excel .xlsx
+++ b/Formula Excel .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roshanvs/Documents/GITHUB/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469DE1BD-C36E-0742-B63C-07EC94A92D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BC35C2-EB5B-4445-A76C-42594B7B09B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="2" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="10" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Max-Min" sheetId="9" r:id="rId1"/>
@@ -1028,8 +1028,8 @@
   </sheetPr>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="C1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1102,6 +1102,10 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
+      <c r="J2" t="str" cm="1">
+        <f t="array" ref="J2:J10">CONCATENATE(B2:B10,".",C2:C10,"@gmail.com")</f>
+        <v>Jim.Halpert@gmail.com</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -1131,6 +1135,9 @@
       <c r="I3" s="1">
         <v>42287</v>
       </c>
+      <c r="J3" t="str">
+        <v>Pam.Beasley@gmail.com</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -1160,6 +1167,9 @@
       <c r="I4" s="1">
         <v>42986</v>
       </c>
+      <c r="J4" t="str">
+        <v>Dwight.Schrute@gmail.com</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -1189,6 +1199,9 @@
       <c r="I5" s="1">
         <v>42341</v>
       </c>
+      <c r="J5" t="str">
+        <v>Angela.Martin@gmail.com</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -1218,6 +1231,9 @@
       <c r="I6" s="1">
         <v>42977</v>
       </c>
+      <c r="J6" t="str">
+        <v>Toby.Flenderson@gmail.com</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -1247,6 +1263,9 @@
       <c r="I7" s="1">
         <v>41528</v>
       </c>
+      <c r="J7" t="str">
+        <v>Michael.Scott@gmail.com</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -1276,6 +1295,9 @@
       <c r="I8" s="1">
         <v>41551</v>
       </c>
+      <c r="J8" t="str">
+        <v>Meredith.Palmer@gmail.com</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -1305,6 +1327,9 @@
       <c r="I9" s="1">
         <v>42116</v>
       </c>
+      <c r="J9" t="str">
+        <v>Stanley.Hudson@gmail.com</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -1333,6 +1358,9 @@
       </c>
       <c r="I10" s="1">
         <v>40800</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Kevin.Malone@gmail.com</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1359,8 +1387,8 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1432,6 +1460,14 @@
       <c r="I2" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="J2">
+        <f>_xlfn.DAYS(I2,H2)</f>
+        <v>5056</v>
+      </c>
+      <c r="K2">
+        <f>NETWORKDAYS(H2,I2)</f>
+        <v>3611</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -1461,6 +1497,14 @@
       <c r="I3" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J10" si="0">_xlfn.DAYS(I3,H3)</f>
+        <v>5851</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K10" si="1">NETWORKDAYS(H3,I3)</f>
+        <v>4180</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -1490,6 +1534,14 @@
       <c r="I4" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>6275</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>4484</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -1519,6 +1571,14 @@
       <c r="I5" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>5811</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>4152</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -1548,6 +1608,14 @@
       <c r="I6" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>5960</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>4258</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -1577,6 +1645,14 @@
       <c r="I7" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>4511</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>3223</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -1606,6 +1682,14 @@
       <c r="I8" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>3595</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>2568</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -1635,6 +1719,14 @@
       <c r="I9" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>4700</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>3358</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -1663,6 +1755,14 @@
       </c>
       <c r="I10" s="2" t="s">
         <v>62</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>4273</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>3053</v>
       </c>
     </row>
   </sheetData>
@@ -2052,8 +2152,8 @@
   </sheetPr>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2158,6 +2258,10 @@
       <c r="I3" s="1">
         <v>42287</v>
       </c>
+      <c r="J3" cm="1">
+        <f t="array" ref="J3:J10">LEN(F3:F10)</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -2187,6 +2291,9 @@
       <c r="I4" s="1">
         <v>42986</v>
       </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -2216,6 +2323,9 @@
       <c r="I5" s="1">
         <v>42341</v>
       </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -2245,6 +2355,9 @@
       <c r="I6" s="1">
         <v>42977</v>
       </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -2274,6 +2387,9 @@
       <c r="I7" s="1">
         <v>41528</v>
       </c>
+      <c r="J7">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -2303,6 +2419,9 @@
       <c r="I8" s="1">
         <v>41551</v>
       </c>
+      <c r="J8">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -2332,6 +2451,9 @@
       <c r="I9" s="1">
         <v>42116</v>
       </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -2360,6 +2482,9 @@
       </c>
       <c r="I10" s="1">
         <v>40800</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2374,8 +2499,8 @@
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="C1" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2456,6 +2581,18 @@
       <c r="J2" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="K2" t="str" cm="1">
+        <f t="array" ref="K2:K10">LEFT(B2:B10,2)</f>
+        <v>Ji</v>
+      </c>
+      <c r="L2" t="str" cm="1">
+        <f t="array" ref="L2:L10">RIGHT(A2:A10,1)</f>
+        <v>1</v>
+      </c>
+      <c r="M2" t="str" cm="1">
+        <f t="array" ref="M2:M10">RIGHT(H2:H10,4)</f>
+        <v>2001</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -2488,6 +2625,15 @@
       <c r="J3" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="K3" t="str">
+        <v>Pa</v>
+      </c>
+      <c r="L3" t="str">
+        <v>2</v>
+      </c>
+      <c r="M3" t="str">
+        <v>1999</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -2520,6 +2666,15 @@
       <c r="J4" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="K4" t="str">
+        <v>Dw</v>
+      </c>
+      <c r="L4" t="str">
+        <v>3</v>
+      </c>
+      <c r="M4" t="str">
+        <v>2000</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -2552,6 +2707,15 @@
       <c r="J5" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="K5" t="str">
+        <v>An</v>
+      </c>
+      <c r="L5" t="str">
+        <v>4</v>
+      </c>
+      <c r="M5" t="str">
+        <v>2000</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -2584,6 +2748,15 @@
       <c r="J6" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="K6" t="str">
+        <v>To</v>
+      </c>
+      <c r="L6" t="str">
+        <v>5</v>
+      </c>
+      <c r="M6" t="str">
+        <v>2001</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -2616,6 +2789,15 @@
       <c r="J7" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="K7" t="str">
+        <v>Mi</v>
+      </c>
+      <c r="L7" t="str">
+        <v>6</v>
+      </c>
+      <c r="M7" t="str">
+        <v>2001</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -2648,6 +2830,15 @@
       <c r="J8" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="K8" t="str">
+        <v>Me</v>
+      </c>
+      <c r="L8" t="str">
+        <v>7</v>
+      </c>
+      <c r="M8" t="str">
+        <v>2003</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -2680,6 +2871,15 @@
       <c r="J9" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="K9" t="str">
+        <v>St</v>
+      </c>
+      <c r="L9" t="str">
+        <v>8</v>
+      </c>
+      <c r="M9" t="str">
+        <v>2002</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -2712,9 +2912,19 @@
       <c r="J10" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="K10" t="str">
+        <v>Ke</v>
+      </c>
+      <c r="L10" t="str">
+        <v>9</v>
+      </c>
+      <c r="M10" t="str">
+        <v>2003</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2725,8 +2935,8 @@
   </sheetPr>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="B1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2795,6 +3005,10 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
+      <c r="J2" t="str" cm="1">
+        <f t="array" ref="J2:J10">TEXT(H2:H10,"dd/mm/yyyy")</f>
+        <v>02/11/2001</v>
+      </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -2825,6 +3039,9 @@
       <c r="I3" s="1">
         <v>42287</v>
       </c>
+      <c r="J3" t="str">
+        <v>03/10/1999</v>
+      </c>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -2855,6 +3072,9 @@
       <c r="I4" s="1">
         <v>42986</v>
       </c>
+      <c r="J4" t="str">
+        <v>04/07/2000</v>
+      </c>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -2885,6 +3105,9 @@
       <c r="I5" s="1">
         <v>42341</v>
       </c>
+      <c r="J5" t="str">
+        <v>05/01/2000</v>
+      </c>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -2915,6 +3138,9 @@
       <c r="I6" s="1">
         <v>42977</v>
       </c>
+      <c r="J6" t="str">
+        <v>06/05/2001</v>
+      </c>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -2945,6 +3171,9 @@
       <c r="I7" s="1">
         <v>41528</v>
       </c>
+      <c r="J7" t="str">
+        <v>07/12/1995</v>
+      </c>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -2975,6 +3204,9 @@
       <c r="I8" s="1">
         <v>41551</v>
       </c>
+      <c r="J8" t="str">
+        <v>08/11/2003</v>
+      </c>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -3005,6 +3237,9 @@
       <c r="I9" s="1">
         <v>42116</v>
       </c>
+      <c r="J9" t="str">
+        <v>09/06/2002</v>
+      </c>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -3034,6 +3269,9 @@
       </c>
       <c r="I10" s="1">
         <v>40800</v>
+      </c>
+      <c r="J10" t="str">
+        <v>10/08/2003</v>
       </c>
       <c r="K10" s="2"/>
     </row>
@@ -3055,8 +3293,8 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="E1" zoomScale="194" zoomScaleNormal="194" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3128,6 +3366,10 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
+      <c r="J2" t="str" cm="1">
+        <f t="array" ref="J2:J10">TRIM(C2:C10)</f>
+        <v>Halpert</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -3157,6 +3399,9 @@
       <c r="I3" s="1">
         <v>42287</v>
       </c>
+      <c r="J3" t="str">
+        <v>Beasley</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -3186,6 +3431,9 @@
       <c r="I4" s="1">
         <v>42986</v>
       </c>
+      <c r="J4" t="str">
+        <v>Schrute</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -3215,6 +3463,9 @@
       <c r="I5" s="1">
         <v>42341</v>
       </c>
+      <c r="J5" t="str">
+        <v>Martin</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -3244,6 +3495,9 @@
       <c r="I6" s="1">
         <v>42977</v>
       </c>
+      <c r="J6" t="str">
+        <v>Flenderson</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -3273,6 +3527,9 @@
       <c r="I7" s="1">
         <v>41528</v>
       </c>
+      <c r="J7" t="str">
+        <v>Scott</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -3302,6 +3559,9 @@
       <c r="I8" s="1">
         <v>41551</v>
       </c>
+      <c r="J8" t="str">
+        <v>Palmer</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -3331,6 +3591,9 @@
       <c r="I9" s="1">
         <v>42116</v>
       </c>
+      <c r="J9" t="str">
+        <v>Hudson</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -3359,6 +3622,9 @@
       </c>
       <c r="I10" s="1">
         <v>40800</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Malone</v>
       </c>
     </row>
   </sheetData>
@@ -3373,8 +3639,8 @@
   </sheetPr>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="E1" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3449,6 +3715,18 @@
       <c r="I2" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="J2" t="str" cm="1">
+        <f t="array" ref="J2:J10">SUBSTITUTE(H2:H10,"/","-",1)</f>
+        <v>11-2/2001</v>
+      </c>
+      <c r="K2" t="str" cm="1">
+        <f t="array" ref="K2:K10">SUBSTITUTE(H2:H10,"/","-",2)</f>
+        <v>11/2-2001</v>
+      </c>
+      <c r="L2" t="str" cm="1">
+        <f t="array" ref="L2:L10">SUBSTITUTE(H2:H10,"/","-")</f>
+        <v>11-2-2001</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -3478,6 +3756,15 @@
       <c r="I3" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="J3" t="str">
+        <v>10-3/1999</v>
+      </c>
+      <c r="K3" t="str">
+        <v>10/3-1999</v>
+      </c>
+      <c r="L3" t="str">
+        <v>10-3-1999</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -3507,6 +3794,15 @@
       <c r="I4" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="J4" t="str">
+        <v>7-4/2000</v>
+      </c>
+      <c r="K4" t="str">
+        <v>7/4-2000</v>
+      </c>
+      <c r="L4" t="str">
+        <v>7-4-2000</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -3536,6 +3832,15 @@
       <c r="I5" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="J5" t="str">
+        <v>1-5/2000</v>
+      </c>
+      <c r="K5" t="str">
+        <v>1/5-2000</v>
+      </c>
+      <c r="L5" t="str">
+        <v>1-5-2000</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -3565,6 +3870,15 @@
       <c r="I6" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="J6" t="str">
+        <v>5-6/2001</v>
+      </c>
+      <c r="K6" t="str">
+        <v>5/6-2001</v>
+      </c>
+      <c r="L6" t="str">
+        <v>5-6-2001</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -3594,6 +3908,15 @@
       <c r="I7" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="J7" t="str">
+        <v>5-6/2001</v>
+      </c>
+      <c r="K7" t="str">
+        <v>5/6-2001</v>
+      </c>
+      <c r="L7" t="str">
+        <v>5-6-2001</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -3623,6 +3946,15 @@
       <c r="I8" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="J8" t="str">
+        <v>11-8/2003</v>
+      </c>
+      <c r="K8" t="str">
+        <v>11/8-2003</v>
+      </c>
+      <c r="L8" t="str">
+        <v>11-8-2003</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -3652,6 +3984,15 @@
       <c r="I9" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="J9" t="str">
+        <v>6-9/2002</v>
+      </c>
+      <c r="K9" t="str">
+        <v>6/9-2002</v>
+      </c>
+      <c r="L9" t="str">
+        <v>6-9-2002</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -3680,6 +4021,15 @@
       </c>
       <c r="I10" s="2" t="s">
         <v>62</v>
+      </c>
+      <c r="J10" t="str">
+        <v>8-10/2003</v>
+      </c>
+      <c r="K10" t="str">
+        <v>8/10-2003</v>
+      </c>
+      <c r="L10" t="str">
+        <v>8-10-2003</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3731,8 +4081,8 @@
   </sheetPr>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="D1" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3802,6 +4152,18 @@
       </c>
       <c r="I2" s="1">
         <v>42253</v>
+      </c>
+      <c r="J2">
+        <f>SUM(G2:G10)</f>
+        <v>437000</v>
+      </c>
+      <c r="K2">
+        <f>SUMIF(G2:G10,"&gt;50000")</f>
+        <v>128000</v>
+      </c>
+      <c r="L2">
+        <f>SUMIFS(G2:G10,E2:E10,"=female",D2:D10,"&gt;30")</f>
+        <v>88000</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4048,8 +4410,8 @@
   </sheetPr>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="D1" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4124,6 +4486,18 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
+      <c r="J2">
+        <f>COUNT(G2:G10)</f>
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <f>COUNTIF(G2:G10,"&gt;45000")</f>
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <f>COUNTIFS(A2:A10,"1005",E2:E10,"=male")</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
